--- a/Program Kerja/Program Kerja Sakti 2021-2022.xlsx
+++ b/Program Kerja/Program Kerja Sakti 2021-2022.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ASIA MATKUL\Sakti\Sekretaris 2021 - 2022\Program Kerja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5505" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+  <si>
+    <t>PROGRAM KERJA HIMAPRO TI SAKTI 2021 - 2022</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
   <si>
     <t>PROGRAM KERJA</t>
   </si>
@@ -35,111 +41,238 @@
     <t>WAKTU</t>
   </si>
   <si>
+    <t>PENANGUNG JAWAB</t>
+  </si>
+  <si>
+    <t>ANGGARAN</t>
+  </si>
+  <si>
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>OSPRO</t>
-  </si>
-  <si>
-    <t>Sidang</t>
-  </si>
-  <si>
-    <t>INTERNAL</t>
-  </si>
-  <si>
-    <t>Pengabdian Masyarakat</t>
-  </si>
-  <si>
-    <t>Temu Kangen Demisioner</t>
-  </si>
-  <si>
-    <t>PKM</t>
-  </si>
-  <si>
-    <t>Gemastik</t>
-  </si>
-  <si>
-    <t>Kelompok Belajar</t>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>zaqi</t>
+  </si>
+  <si>
+    <t>Rekrument dan Diklat</t>
+  </si>
+  <si>
+    <t>Desember - Januari</t>
+  </si>
+  <si>
+    <t>joko</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>putra</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>lutfiya</t>
+  </si>
+  <si>
+    <t>Aspirasi Mahasiswa</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>Bikin PDL Pengurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katelpak TI </t>
+  </si>
+  <si>
+    <t>Eksternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studi Banding </t>
+  </si>
+  <si>
+    <t>Minat Bakat</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Desember – Februari</t>
+  </si>
+  <si>
+    <t>Untuk waktunya masih belum tentu</t>
+  </si>
+  <si>
+    <t>Menghidupkan Media Sosisal dengan konten Teknologi</t>
+  </si>
+  <si>
+    <t>Oktober – Juni</t>
   </si>
   <si>
     <t>Riset Minat dan Bakat Mahasiswa</t>
   </si>
   <si>
-    <t>Kelompok Belajar bareng Pengurus</t>
-  </si>
-  <si>
-    <t>Menghidupkan Media Sosisal dengan konten Teknologi</t>
-  </si>
-  <si>
-    <t>Aspirasi Mahasiswa</t>
-  </si>
-  <si>
-    <t>Rekrument dan Diklat</t>
-  </si>
-  <si>
-    <t>Makrab Pengurus</t>
-  </si>
-  <si>
-    <t>Bikin PDL Pengurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katelpak TI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baksos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studi Banding </t>
-  </si>
-  <si>
-    <t>PROGRAM KERJA HIMAPRO TI SAKTI 2021 - 2022</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Eksternal</t>
-  </si>
-  <si>
-    <t>Minat Bakat</t>
+    <t>Oktober, November</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Rifqi</t>
+  </si>
+  <si>
+    <t>Haris</t>
+  </si>
+  <si>
+    <t>Aldriyan</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Helmi</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Webinar cara mengelola medsos</t>
+  </si>
+  <si>
+    <t>500 rb</t>
+  </si>
+  <si>
+    <t>Libur semester ganjil</t>
+  </si>
+  <si>
+    <t>200 rb</t>
+  </si>
+  <si>
+    <t>Oktober - November</t>
+  </si>
+  <si>
+    <t>2 jt</t>
+  </si>
+  <si>
+    <t>6 jt</t>
+  </si>
+  <si>
+    <t>Tema dan materi menyesuaikan kesepakatan dan kebutuhan mahasiswa</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Webinar IT</t>
+  </si>
+  <si>
+    <t>opsional</t>
+  </si>
+  <si>
+    <t>berkala selama 1 periode</t>
+  </si>
+  <si>
+    <t>Oktober - Desember</t>
+  </si>
+  <si>
+    <t>1,5 jt</t>
+  </si>
+  <si>
+    <t>Pencetakan dilakukan secara berkala ( dicetak saat kuota mencukupi ), 1x cetak 30 pcs baju</t>
+  </si>
+  <si>
+    <t>3,6 jt per cetak</t>
+  </si>
+  <si>
+    <t>Sidang ad/art</t>
+  </si>
+  <si>
+    <t>Kelompok Belajar web dan jaringan</t>
+  </si>
+  <si>
+    <t>PKM (webinar/sosialisasi,brainstorming)</t>
+  </si>
+  <si>
+    <t>Hackaton (webinar/sosialisasi)</t>
+  </si>
+  <si>
+    <t>Gemastik (webinar/sosialisi,brainstorming)</t>
+  </si>
+  <si>
+    <t>Makrab Pengurus, dan belajar bareng pengurus</t>
+  </si>
+  <si>
+    <t>Baksos, buka bersama dan temu kangen demisioner</t>
+  </si>
+  <si>
+    <t>1 jt</t>
+  </si>
+  <si>
+    <t>ketika bulan ramadhan</t>
+  </si>
+  <si>
+    <t>OSPRO(Ospek Prodi) 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,14 +281,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -166,12 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -180,48 +325,126 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -230,6 +453,77 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FF00DE64"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -258,7 +552,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -270,7 +564,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -317,6 +611,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -352,6 +663,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,233 +834,446 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.5">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="G20" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>